--- a/ig/ValueSet-mitn-default-hpo.xlsx
+++ b/ig/ValueSet-mitn-default-hpo.xlsx
@@ -96,79 +96,79 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>HP.0003128</t>
+    <t>HP:0003128</t>
   </si>
   <si>
     <t>Lactic acidosis</t>
   </si>
   <si>
-    <t>HP.0001263</t>
+    <t>HP:0001263</t>
   </si>
   <si>
     <t>Global developmental delay</t>
   </si>
   <si>
-    <t>HP.0001290</t>
+    <t>HP:0001290</t>
   </si>
   <si>
     <t>Generalized hypotonia</t>
   </si>
   <si>
-    <t>HP.0001250</t>
+    <t>HP:0001250</t>
   </si>
   <si>
     <t>Seizures</t>
   </si>
   <si>
-    <t>HP.0006965</t>
+    <t>HP:0006965</t>
   </si>
   <si>
     <t>Acute necrotizing encephalopathy</t>
   </si>
   <si>
-    <t>HP.0001251</t>
+    <t>HP:0001251</t>
   </si>
   <si>
     <t>Ataxia</t>
   </si>
   <si>
-    <t>HP.0006554</t>
+    <t>HP:0006554</t>
   </si>
   <si>
     <t>Acute hepatic failure</t>
   </si>
   <si>
-    <t>HP.0006582</t>
+    <t>HP:0006582</t>
   </si>
   <si>
     <t>Reye syndrome-like episodes</t>
   </si>
   <si>
-    <t>HP.0001638</t>
+    <t>HP:0001638</t>
   </si>
   <si>
     <t>Cardiomyopathy</t>
   </si>
   <si>
-    <t>HP.0001488</t>
+    <t>HP:0001488</t>
   </si>
   <si>
     <t>Bilateral ptosis</t>
   </si>
   <si>
-    <t>HP.0000508</t>
+    <t>HP:0000508</t>
   </si>
   <si>
     <t>Ptosis</t>
   </si>
   <si>
-    <t>HP.0001138</t>
+    <t>HP:0001138</t>
   </si>
   <si>
     <t>Optic neuropathy</t>
   </si>
   <si>
-    <t>HP.0000590</t>
+    <t>HP:0000590</t>
   </si>
   <si>
     <t>Progressive external ophthalmoplegia</t>

--- a/ig/ValueSet-mitn-default-hpo.xlsx
+++ b/ig/ValueSet-mitn-default-hpo.xlsx
@@ -302,10 +302,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ValueSet-mitn-default-hpo.xlsx
+++ b/ig/ValueSet-mitn-default-hpo.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>
